--- a/docs/shrcore/shr-core-ServiceRequest.xlsx
+++ b/docs/shrcore/shr-core-ServiceRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="475">
   <si>
     <t>Path</t>
   </si>
@@ -495,10 +495,50 @@
     <t>Request(s) replaced by this request</t>
   </si>
   <si>
-    <t>requisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Requisition-extension]]} {[]}
+    <t>ProcedureRequest.extension.id</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Replaces-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ProcedureRequest.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest]]}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>groupidentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-GroupIdentifier-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -1643,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3832,11 +3872,9 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>152</v>
       </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3857,11 +3895,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3912,13 +3952,13 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>44</v>
@@ -3933,7 +3973,7 @@
         <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -3944,11 +3984,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>44</v>
       </c>
@@ -3957,7 +3995,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -3969,11 +4007,13 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4024,7 +4064,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4056,20 +4096,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -4081,11 +4119,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4094,7 +4134,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
@@ -4136,13 +4176,13 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>44</v>
@@ -4157,7 +4197,7 @@
         <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4168,17 +4208,15 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B23" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>53</v>
@@ -4195,9 +4233,11 @@
       <c r="J23" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4248,13 +4288,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4269,7 +4309,7 @@
         <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4283,7 +4323,7 @@
         <v>143</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>44</v>
@@ -4305,11 +4345,11 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4395,7 +4435,7 @@
         <v>143</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>44</v>
@@ -4405,7 +4445,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4417,11 +4457,11 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4507,7 +4547,7 @@
         <v>143</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>44</v>
@@ -4529,11 +4569,11 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4619,7 +4659,7 @@
         <v>143</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>44</v>
@@ -4629,7 +4669,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4641,11 +4681,11 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4731,7 +4771,7 @@
         <v>143</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>44</v>
@@ -4741,7 +4781,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
@@ -4753,11 +4793,11 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4843,7 +4883,7 @@
         <v>143</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
@@ -4865,11 +4905,11 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4955,7 +4995,7 @@
         <v>143</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>44</v>
@@ -4965,7 +5005,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -4977,11 +5017,11 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5067,17 +5107,17 @@
         <v>143</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5089,11 +5129,11 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5176,11 +5216,13 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="C32" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5193,23 +5235,19 @@
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="L32" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5258,7 +5296,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5279,7 +5317,7 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5290,9 +5328,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5310,20 +5350,16 @@
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="K33" s="2"/>
+      <c r="L33" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5371,11 +5407,15 @@
       <c r="AD33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5383,35 +5423,37 @@
         <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="C34" t="s" s="2">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5420,16 +5462,14 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5479,11 +5519,15 @@
       <c r="AD34" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5491,13 +5535,13 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
@@ -5508,18 +5552,20 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="C35" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5528,16 +5574,14 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5587,11 +5631,15 @@
       <c r="AD35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5599,13 +5647,13 @@
         <v>44</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5616,11 +5664,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5633,21 +5681,23 @@
         <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5695,11 +5745,15 @@
       <c r="AD36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE36" s="2"/>
+      <c r="AE36" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5707,13 +5761,13 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -5724,18 +5778,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5747,20 +5801,18 @@
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5819,57 +5871,55 @@
         <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5894,13 +5944,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5929,57 +5979,55 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -6004,13 +6052,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -6039,16 +6087,16 @@
         <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6056,7 +6104,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6067,7 +6115,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6079,22 +6127,20 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P40" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6114,13 +6160,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6149,16 +6195,16 @@
         <v>44</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6166,45 +6212,45 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -6249,15 +6295,11 @@
       <c r="AD41" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6268,10 +6310,10 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6282,7 +6324,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6290,35 +6332,33 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6342,13 +6382,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6377,24 +6417,24 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6411,22 +6451,22 @@
         <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6452,13 +6492,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6487,24 +6527,24 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6512,7 +6552,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>53</v>
@@ -6527,20 +6567,22 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="Q44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6560,13 +6602,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6583,15 +6625,11 @@
       <c r="AD44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>53</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6599,58 +6637,62 @@
         <v>44</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -6695,11 +6737,15 @@
       <c r="AD45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE45" s="2"/>
+      <c r="AE45" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG45" s="2"/>
+      <c r="AG45" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6707,35 +6753,35 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -6747,16 +6793,20 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6780,13 +6830,13 @@
         <v>44</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>44</v>
@@ -6815,24 +6865,24 @@
         <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6840,7 +6890,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>53</v>
@@ -6855,15 +6905,17 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6891,10 +6943,10 @@
         <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6923,32 +6975,32 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>53</v>
@@ -6963,13 +7015,13 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7019,11 +7071,15 @@
       <c r="AD48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG48" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7031,28 +7087,28 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7071,17 +7127,15 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7138,31 +7192,31 @@
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7178,16 +7232,16 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>68</v>
+        <v>325</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7237,15 +7291,11 @@
       <c r="AD50" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>53</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7253,35 +7303,35 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>70</v>
+        <v>328</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7290,20 +7340,18 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7328,13 +7376,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7351,15 +7399,11 @@
       <c r="AD51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7373,51 +7417,49 @@
         <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>341</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7465,15 +7507,11 @@
       <c r="AD52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7481,32 +7519,32 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>142</v>
+        <v>346</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>53</v>
@@ -7521,15 +7559,17 @@
         <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7586,22 +7626,22 @@
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>358</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="54" hidden="true">
@@ -7626,21 +7666,19 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>362</v>
+        <v>67</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>363</v>
+        <v>68</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7687,11 +7725,15 @@
       <c r="AD54" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE54" s="2"/>
+      <c r="AE54" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG54" s="2"/>
+      <c r="AG54" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7699,13 +7741,13 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>366</v>
+        <v>70</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7716,18 +7758,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7736,19 +7778,19 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>75</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7774,13 +7816,13 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7797,11 +7839,15 @@
       <c r="AD55" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7809,16 +7855,16 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>375</v>
+        <v>70</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>44</v>
@@ -7826,39 +7872,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>378</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>379</v>
+        <v>202</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7907,11 +7953,15 @@
       <c r="AD56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
@@ -7919,16 +7969,16 @@
         <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>383</v>
+        <v>142</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -7936,7 +7986,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7944,7 +7994,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>53</v>
@@ -7959,17 +8009,15 @@
         <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>271</v>
+        <v>367</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -7994,13 +8042,13 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8017,15 +8065,11 @@
       <c r="AD57" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE57" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="AE57" s="2"/>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8033,24 +8077,24 @@
         <v>44</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>44</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8073,18 +8117,18 @@
         <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8131,15 +8175,11 @@
       <c r="AD58" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE58" t="s" s="2">
-        <v>394</v>
-      </c>
+      <c r="AE58" s="2"/>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8147,16 +8187,16 @@
         <v>44</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8164,18 +8204,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
@@ -8184,18 +8224,20 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8220,13 +8262,13 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8255,16 +8297,16 @@
         <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8272,7 +8314,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8283,7 +8325,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8295,16 +8337,16 @@
         <v>54</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8365,16 +8407,16 @@
         <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8382,18 +8424,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>414</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8405,20 +8447,18 @@
         <v>54</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8442,11 +8482,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8463,11 +8505,15 @@
       <c r="AD61" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8475,24 +8521,24 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>44</v>
+        <v>403</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8512,18 +8558,20 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>66</v>
+        <v>408</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>67</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8572,13 +8620,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>69</v>
+        <v>407</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8587,16 +8635,16 @@
         <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -8604,11 +8652,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8627,17 +8675,15 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -8674,26 +8720,22 @@
         <v>44</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8701,13 +8743,13 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>44</v>
+        <v>416</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>417</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>70</v>
+        <v>418</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8718,11 +8760,9 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>44</v>
       </c>
@@ -8740,16 +8780,20 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="K64" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -8797,15 +8841,11 @@
       <c r="AD64" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE64" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AE64" s="2"/>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
         <v>44</v>
       </c>
@@ -8816,10 +8856,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -8830,13 +8870,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8852,17 +8890,23 @@
         <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K65" s="2"/>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
@@ -8886,13 +8930,11 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -8909,15 +8951,11 @@
       <c r="AD65" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AE65" s="2"/>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG65" s="2"/>
       <c r="AH65" t="s" s="2">
         <v>44</v>
       </c>
@@ -8928,25 +8966,23 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>44</v>
       </c>
@@ -8955,7 +8991,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -8967,11 +9003,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="K66" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L66" t="s" s="2">
-        <v>433</v>
+        <v>68</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9022,13 +9060,13 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9043,7 +9081,7 @@
         <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
@@ -9054,11 +9092,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9074,23 +9112,21 @@
         <v>44</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>435</v>
+        <v>74</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>75</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9126,22 +9162,26 @@
         <v>44</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE67" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9152,10 +9192,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>440</v>
+        <v>70</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9166,9 +9206,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9177,7 +9219,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
@@ -9186,23 +9228,17 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="K68" s="2"/>
       <c r="L68" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9249,11 +9285,15 @@
       <c r="AD68" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE68" s="2"/>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG68" s="2"/>
+      <c r="AG68" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9264,10 +9304,10 @@
         <v>44</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>447</v>
+        <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -9278,9 +9318,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9301,13 +9343,11 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="K69" s="2"/>
       <c r="L69" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9357,11 +9397,15 @@
       <c r="AD69" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE69" s="2"/>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG69" s="2"/>
+      <c r="AG69" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9369,26 +9413,28 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>451</v>
+        <v>44</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>452</v>
+        <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9409,17 +9455,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="K70" s="2"/>
       <c r="L70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9467,11 +9509,15 @@
       <c r="AD70" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AE70" s="2"/>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG70" s="2"/>
+      <c r="AG70" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9479,23 +9525,465 @@
         <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" s="2"/>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" s="2"/>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" s="2"/>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" s="2"/>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" s="2"/>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" s="2"/>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN70">
+  <autoFilter ref="A1:AN74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9505,7 +9993,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
